--- a/Question_Sets/Programming skills/Keras.xlsx
+++ b/Question_Sets/Programming skills/Keras.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Which of the following modules contains architectures such as the ResNet50 and VGG19?', 'ques_type': 2, 'options': ['tensorflow.keras.applications', 'tensorflow.keras.preprocessing', 'tensorflow.keras.models', 'tensorflow.keras.layers'], 'score': 'tensorflow.keras.applications'}, {'title': 'Given the sequential model summary for a Keras sequential model below, what is the code for the third layer?      Model: "model"   _________________________________________________________________   Layer (type)                Output Shape             Param #     =================================================================   input_1 (InputLayer)        [(None, None)]           0           _________________________________________________________________   embedding (Embedding)       (None, None, 128)        2560000     _________________________________________________________________   bidirectional (Bidirectional (None, None, 128)        98816       _________________________________________________________________   bidirectional_1 (Bidirectional (None, 128)              98816       _________________________________________________________________   dense (Dense)               (None, 1)                129         =================================================================   Total params: 2,757,761   Trainable params: 2,757,761   Non-trainable params: 0   _________________________________________________________________', 'ques_type': 2, 'options': ['layers.Bidirectional(layers.LSTM(128, return_sequences=True))', 'layers.Bidirectional(layers.LSTM(32))', 'layers.Bidirectional(layers.LSTM(128))', 'layers.Bidirectional(layers.LSTM(64, return_sequences=True))'], 'score': 'layers.Bidirectional(layers.LSTM(64, return_sequences=True))'}, {'title': 'The target variable of a dataset with 1024 samples and 6 classes has the shape (1024, 6).  What loss function must be used when compiling the model?', 'ques_type': 2, 'options': ['mean-squared-error', 'sparse-categorical-crossentropy', 'categorical-crossentropy', 'mean-absolute-error'], 'score': 'categorical-crossentropy'}, {'title': "Your dataset has images of the size 32x40 with 2 classes. When you run the code below, an error pops up saying “Expected shape (None, 32).” Why is this error occurring? model = tf.keras.Sequential([          tf.keras.layers.Flatten(input_shape=(32, 40)),          tf.keras.layers.Dense(128, activation='relu'),          tf.keras.layers.Dense(32)           ])", 'ques_type': 2, 'options': ['The second dense layer must have 32*40 neurons.', 'The activation function must not be ReLU.', 'The input shape must be (40, 32).', 'The last dense layer must have only 2 neurons.'], 'score': 'The last dense layer must have only 2 neurons.'}]</t>
+    <t>questions = [
+    {
+        "title": "Which of the following modules contains architectures such as the ResNet50 and VGG19?",
+        "ques_type": 2,
+        "options": [
+            "tensorflow.keras.applications",
+            "tensorflow.keras.preprocessing",
+            "tensorflow.keras.models",
+            "tensorflow.keras.layers"
+        ],
+        "score": "tensorflow.keras.applications"
+    },
+    {
+        "title": "Given the sequential model summary for a Keras sequential model below, what is the code for the third layer?      Model: \"model\"   _________________________________________________________________   Layer (type)                Output Shape             Param #     =================================================================   input_1 (InputLayer)        [(None, None)]           0           _________________________________________________________________   embedding (Embedding)       (None, None, 128)        2560000     _________________________________________________________________   bidirectional (Bidirectional (None, None, 128)        98816       _________________________________________________________________   bidirectional_1 (Bidirectional (None, 128)              98816       _________________________________________________________________   dense (Dense)               (None, 1)                129         =================================================================   Total params: 2,757,761   Trainable params: 2,757,761   Non-trainable params: 0   _________________________________________________________________",
+        "ques_type": 2,
+        "options": [
+            "layers.Bidirectional(layers.LSTM(128, return_sequences=True))",
+            "layers.Bidirectional(layers.LSTM(32))",
+            "layers.Bidirectional(layers.LSTM(128))",
+            "layers.Bidirectional(layers.LSTM(64, return_sequences=True))"
+        ],
+        "score": "layers.Bidirectional(layers.LSTM(64, return_sequences=True))"
+    },
+    {
+        "title": "The target variable of a dataset with 1024 samples and 6 classes has the shape (1024, 6).  What loss function must be used when compiling the model?",
+        "ques_type": 2,
+        "options": [
+            "mean-squared-error",
+            "sparse-categorical-crossentropy",
+            "categorical-crossentropy",
+            "mean-absolute-error"
+        ],
+        "score": "categorical-crossentropy"
+    },
+    {
+        "title": "Your dataset has images of the size 32x40 with 2 classes. When you run the code below, an error pops up saying \u201cExpected shape (None, 32).\u201d Why is this error occurring? model = tf.keras.Sequential([          tf.keras.layers.Flatten(input_shape=(32, 40)),          tf.keras.layers.Dense(128, activation='relu'),          tf.keras.layers.Dense(32)           ])",
+        "ques_type": 2,
+        "options": [
+            "The second dense layer must have 32*40 neurons.",
+            "The activation function must not be ReLU.",
+            "The input shape must be (40, 32).",
+            "The last dense layer must have only 2 neurons."
+        ],
+        "score": "The last dense layer must have only 2 neurons."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
